--- a/feedback_forms/current_versions/generic_operator_feedback_v002_jinja_.xlsx
+++ b/feedback_forms/current_versions/generic_operator_feedback_v002_jinja_.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C744C59-508C-4FF9-81A4-1B71A9CA5B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="phjdbjKXl8eTXqSGkzNspbBh3Tmzmmc1jUhdIDpPSDeisB4GjsOyVhL4TKgFX9MLCFuWgXBjn2/b+GVhuo6RTg==" workbookSaltValue="DS5iKuGYo62iP+qrO/57Eg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01681DF7-1547-4C5F-B618-DDF383830D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JIXBr9NT8TdxWDeTvMK/vGCE5SepkZ3B7ltX6Etwiy5EunoP/uWd5iZpYk7/iNWbsH7lEUdzdTMP3BL2mDR1MQ==" workbookSaltValue="pMHw5qi35L1VT5xLJ3j7Cg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="1467" yWindow="560" windowWidth="18053" windowHeight="13840" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="31065" yWindow="2280" windowWidth="21600" windowHeight="11100" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -960,7 +960,7 @@
     <t>$D$58</t>
   </si>
   <si>
-    <t>generic_v00_01</t>
+    <t>generic_v01_00</t>
   </si>
   <si>
     <t>{{ additional_activities }}</t>
@@ -2536,17 +2536,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2600,13 +2600,13 @@
       <c r="E3" s="21"/>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -2676,12 +2676,12 @@
       <c r="AF6" s="46"/>
       <c r="AG6" s="46"/>
     </row>
-    <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG7" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="47" t="s">
         <v>3</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="41"/>
     </row>
-    <row r="9" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="48" t="s">
         <v>4</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="41"/>
     </row>
-    <row r="10" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
         <v>5</v>
       </c>
@@ -2708,7 +2708,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="41"/>
     </row>
-    <row r="11" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
         <v>6</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="41"/>
     </row>
-    <row r="12" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
         <v>7</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="41"/>
     </row>
-    <row r="13" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="47" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="41"/>
     </row>
-    <row r="14" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="47" t="s">
         <v>9</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="41"/>
     </row>
-    <row r="15" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
         <v>10</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="41"/>
     </row>
-    <row r="16" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="47" t="s">
         <v>11</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="51" t="s">
         <v>13</v>
       </c>
@@ -2780,12 +2780,12 @@
       <c r="E18" s="25"/>
       <c r="F18" s="41"/>
     </row>
-    <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG20" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
@@ -2819,12 +2819,12 @@
       <c r="AF21" s="46"/>
       <c r="AG21" s="46"/>
     </row>
-    <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG22" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="47" t="s">
         <v>14</v>
       </c>
@@ -2835,7 +2835,7 @@
       <c r="E23" s="47"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="47" t="s">
         <v>15</v>
       </c>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="47" t="s">
         <v>16</v>
       </c>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="47" t="s">
         <v>17</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="E26" s="47"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="47" t="s">
         <v>18</v>
       </c>
@@ -2877,7 +2877,7 @@
       <c r="E27" s="47"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="47" t="s">
         <v>19</v>
       </c>
@@ -2889,12 +2889,12 @@
       <c r="F28" s="41"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG29" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -2928,12 +2928,12 @@
       <c r="AF30" s="46"/>
       <c r="AG30" s="46"/>
     </row>
-    <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG31" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="41" t="s">
         <v>20</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="E32" s="44"/>
       <c r="G32" s="26"/>
     </row>
-    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="E33" s="44"/>
       <c r="G33" s="26"/>
     </row>
-    <row r="34" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="41" t="s">
         <v>22</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="E34" s="44"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="41" t="s">
         <v>23</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="E35" s="44"/>
       <c r="G35" s="26"/>
     </row>
-    <row r="36" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="41" t="s">
         <v>24</v>
       </c>
@@ -2988,12 +2988,12 @@
       <c r="E36" s="44"/>
       <c r="G36" s="26"/>
     </row>
-    <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG37" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -3027,12 +3027,12 @@
       <c r="AF38" s="46"/>
       <c r="AG38" s="46"/>
     </row>
-    <row r="39" spans="2:33" s="20" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:33" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG39" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="41" t="s">
         <v>25</v>
       </c>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="41" t="s">
         <v>27</v>
       </c>
@@ -3053,7 +3053,7 @@
       <c r="E41" s="27"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B42" s="28" t="s">
         <v>28</v>
       </c>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
         <v>29</v>
       </c>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B44" s="28" t="s">
         <v>30</v>
       </c>
@@ -3083,12 +3083,12 @@
       </c>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG45" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
@@ -3122,13 +3122,13 @@
       <c r="AF46" s="46"/>
       <c r="AG46" s="46"/>
     </row>
-    <row r="47" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="41"/>
       <c r="AG47" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="28" t="s">
         <v>31</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:33" s="10" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B49" s="36" t="s">
         <v>32</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="E49" s="20"/>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="2:33" s="10" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:33" s="10" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="28" t="s">
         <v>33</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="E50" s="20"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="2:33" s="10" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="43" t="s">
         <v>147</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="E51" s="20"/>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:33" s="10" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B52" s="53" t="s">
         <v>150</v>
       </c>
@@ -3184,12 +3184,12 @@
       <c r="E52" s="20"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
     </row>
-    <row r="54" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
@@ -3223,12 +3223,12 @@
       <c r="AF54" s="46"/>
       <c r="AG54" s="46"/>
     </row>
-    <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG55" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="41" t="s">
         <v>34</v>
       </c>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="G56" s="26"/>
     </row>
-    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="41" t="s">
         <v>35</v>
       </c>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G57" s="26"/>
     </row>
-    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="28" t="s">
         <v>36</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="28" t="s">
         <v>37</v>
       </c>
@@ -3264,15 +3264,15 @@
       </c>
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="44"/>
       <c r="D60" s="29"/>
     </row>
-    <row r="61" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="63" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
         <v>38</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="G63" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZyGy0761vRELfO7B7JD+Dn5Yxed8M7t0ytMjnyvDdaDsDqKka2FlR6wti8N7ahbEFJRQXUHPnXpw6sh+J9uaVw==" saltValue="CLS/l5PsTmfSaQd29DaRaw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L/NMtmQyjhMNS7z5e1k/8PAfa0pwtdUXfQvV/tLvNUJGrpVzwaI/Hjq3dNCT1PCQ4YNem/VTey9S66sxI747ig==" saltValue="8xlk6XzV38mYrS6MhcQLZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D40">
     <cfRule type="expression" dxfId="2" priority="12">
       <formula xml:space="preserve"> IF(LEFT($D$40, 13)="Please Select", TRUE)</formula>
@@ -3325,18 +3325,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3358,7 +3358,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3366,15 +3366,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>47</v>
       </c>
@@ -3404,7 +3404,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>49</v>
       </c>
@@ -3415,7 +3415,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>51</v>
       </c>
@@ -3426,15 +3426,15 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -3465,7 +3465,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>54</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>1</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>2</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>3</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>4</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>5</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>6</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>7</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>8</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>9</v>
       </c>
@@ -3599,7 +3599,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>10</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>11</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>12</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>13</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>14</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>15</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>16</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>17</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>18</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>19</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>20</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>21</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>22</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>23</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>24</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>25</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
         <v>26</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10">
         <v>27</v>
       </c>
@@ -3761,7 +3761,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10">
         <v>28</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
         <v>29</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10">
         <v>30</v>
       </c>
@@ -3788,7 +3788,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
         <v>31</v>
       </c>
@@ -3797,7 +3797,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10">
         <v>32</v>
       </c>
@@ -3806,7 +3806,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>33</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10">
         <v>34</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10">
         <v>35</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="10">
         <v>36</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="10">
         <v>37</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10">
         <v>38</v>
       </c>
@@ -3860,7 +3860,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10">
         <v>39</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="G57" s="13"/>
       <c r="L57" s="17"/>
     </row>
-    <row r="58" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
         <v>40</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>41</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="10">
         <v>42</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="10">
         <v>43</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="10">
         <v>44</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10">
         <v>45</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10">
         <v>46</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10">
         <v>47</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="10">
         <v>48</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>49</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10">
         <v>50</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
         <v>51</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10">
         <v>52</v>
       </c>
@@ -3987,7 +3987,7 @@
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="10">
         <v>53</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="10">
         <v>54</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="10">
         <v>55</v>
       </c>
@@ -4014,7 +4014,7 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="10">
         <v>56</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="10">
         <v>57</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="10">
         <v>58</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="10">
         <v>59</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="10">
         <v>60</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="10">
         <v>61</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
         <v>62</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10">
         <v>63</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10">
         <v>64</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
     </row>
-    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="10">
         <v>65</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="10">
         <v>66</v>
       </c>
@@ -4112,7 +4112,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="10">
         <v>67</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="10">
         <v>68</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="10">
         <v>69</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="10">
         <v>70</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="F88" s="13"/>
       <c r="G88" s="37"/>
     </row>
-    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="10">
         <v>71</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="37"/>
     </row>
-    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="10">
         <v>72</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
         <v>73</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="F91" s="13"/>
       <c r="G91" s="37"/>
     </row>
-    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="10">
         <v>74</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="10">
         <v>75</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="10">
         <v>76</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="10">
         <v>77</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="10">
         <v>78</v>
       </c>
@@ -4220,7 +4220,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="10">
         <v>79</v>
       </c>
@@ -4229,7 +4229,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="10">
         <v>80</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="10">
         <v>81</v>
       </c>
@@ -4247,7 +4247,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="10">
         <v>82</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="10">
         <v>83</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
     </row>
-    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="10">
         <v>84</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
     </row>
-    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10">
         <v>85</v>
       </c>
@@ -4283,7 +4283,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10">
         <v>86</v>
       </c>
@@ -4292,7 +4292,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="10">
         <v>87</v>
       </c>
@@ -4302,7 +4302,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="10">
         <v>88</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="10">
         <v>89</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="10">
         <v>90</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="10">
         <v>91</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="10">
         <v>92</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="10">
         <v>93</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="10">
         <v>94</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="10">
         <v>95</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="10">
         <v>96</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="10">
         <v>97</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="10">
         <v>98</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="10">
         <v>99</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="10">
         <v>100</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="G118" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yOTOkr9nSJgeX2kFT+kAw9kmb6ctJIJE/IWaz+dZa7X+FJuim+74tsaqXMZ+upDEFHMb0E/GK2+uDwtr+xx0RQ==" saltValue="hSxUgQNe/LcM5x9gq2/Bng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4iSOVVpGb/65xb4fOBf7ttPzp/EeU1vQH2+3pjwHJqzzw77oJh6kIToDfJ83UPtQpIidc76GmvlYKV5F6TIY7w==" saltValue="ncCj70v6T62NtHhceXPUJw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F18 F21:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$11</formula>
@@ -4454,21 +4454,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1171875" customWidth="1"/>
-    <col min="4" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="17" width="16.703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="17" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -4539,7 +4539,7 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -4552,91 +4552,91 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="10" spans="1:17" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:7" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B32" s="40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G33"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
@@ -4645,12 +4645,12 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>26</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G36"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:B39">_carb_only_table_02[]</f>
         <v>Operator was aware of the leak prior to receiving the CARB plume notification</v>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <v>Operator detected a leak during follow-up monitoring after receipt of the CARB plume notification</v>
       </c>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <v>No leak was detected</v>
       </c>
@@ -4688,18 +4688,18 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G40"/>
     </row>
-    <row r="42" spans="2:7" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:7" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B42" s="40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G43"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>77</v>
       </c>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>26</v>
       </c>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47:B51">_carb_only_table_03[]</f>
         <v>Not applicable as no leak was detected</v>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <v>Operator was aware of the leak prior to receiving the notification, and/or repairs were in progress on the date of the plume observation</v>
       </c>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
         <v>An unintentional leak  (i.e., the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
         <v>Due to a temporary activity (i.e., would be resolved without corrective action when the activity is complete)</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="767jOadtQWnj3ZKyMi2eyRwPe2wEBCAMMQZCpHoqutOdqXuN1A6U/Cd0OzHuMxLPELQ4A+dv5L5SICtXl1E0NQ==" saltValue="GM/H603ZTIfN7l751PdrLg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GuyTfuGdYYLtSlK1gS3RMFk4mglqgbjsKJlH5EUD5IK0pWveLtu6Jx/GBvlKttptaKKfYJRWnlmYvJqLJAizpA==" saltValue="HdKOcm2zFXhW/YCzr8VjVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
@@ -4788,19 +4788,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/u3zRv2gXhZLXbdUl08WhUnmgrHlVn/ik2V3roJCeTE5U4Mj3HOlIuRT73GEkGEVqGE5dm/nmtSV8jFESTNQrQ==" saltValue="o8KbTYLhAit+Qaz3lFDFmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UGBhPb9DNPCAKphVQMV3FRFWGjTWOVv5oFpgXbL6J29ahrmFFCHGK0QtaiGig8oIxjUk2u8p6TrXPBTqfTIxfQ==" saltValue="eJXAZGoH4olQ6Lwo9YDksQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4861,18 +4861,18 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4904,12 +4904,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>92</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -4934,7 +4934,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Jmf90pMnvq1iDejVdNgjV/oFCZLyNefTOnKJtg8nSGKaDYRp6HodW0m0bInkvOIE76E3399fIz+s9rZ2UPC/Fg==" saltValue="f5zuMCBqyfP2GJUl7fGy+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ewZo0orKeeJVAoVm9hXxcq1/m4Qyop9/O7gZnQgiXuUKuFJn1bxPBt9MO6Iq9yDqTiWpRwCTY/z0XK1ydRcxmA==" saltValue="1Mz115lMwZzH1u2GIpK0Fg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4949,24 +4949,24 @@
       <selection activeCell="A11" sqref="A11:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="25.1171875" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" customWidth="1"/>
-    <col min="4" max="4" width="32.41015625" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="12"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4976,26 +4976,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>84</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>86</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>86</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>86</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>86</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>86</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>86</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>86</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>86</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>86</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>86</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>86</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>86</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -5397,7 +5397,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MpHIw3J5WtEaPnMxpFGnfux61i7T3xhbb57jLsnxVtkPbz0P/1xgocTdddUa9UsvoeQH4k+rt075qf6glzIrIg==" saltValue="+kp7oyANU84uNu21/PaR3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="C/7lXvs3aKpgaFaES+nKE/Hw/GyMj5qFij7gdiordEvm26fPtYjfel09Glz69fg+Djs6ZnO3WR5tncjxE5+GcA==" saltValue="PctY0YdtUP0XuG7CkSpF8g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F37">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -5408,6 +5408,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5642,27 +5662,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5681,25 +5700,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>

--- a/feedback_forms/current_versions/generic_operator_feedback_v002_jinja_.xlsx
+++ b/feedback_forms/current_versions/generic_operator_feedback_v002_jinja_.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123EE6D-A129-4E25-880F-9A188D711921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="okpoMu5exZnmbZMc7Pg54El5QPoEB+Qu7v66yiZ6r853//FBjjsPcpQ8054oIScasVH4iUnvZNnTosB0JatxJg==" workbookSaltValue="dbhltgDjMI7yh0VywCqN8Q==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC29BF-3624-4DE1-8498-D6813FB260DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="YolAQ5HaYdNBmGkU+s5Xlk/YEZV8evpaGiEPBvD+BdoTIEIywQSdLhqIU1v31lPHE7T+bj3MO1q5cQnR4V8uCQ==" workbookSaltValue="dFvh9ANB9KKRkw47okP0Vg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="5013" yWindow="1753" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4367" yWindow="1793" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <definedName name="jinja_re_monitored_concentration">'Feedback Form'!$D$59</definedName>
     <definedName name="jinja_re_monitored_timestamp">'Feedback Form'!$D$58</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1462,24 +1462,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2579,7 +2576,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -2874,7 +2873,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="25"/>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="55" t="s">
         <v>183</v>
       </c>
       <c r="E23" s="46"/>
@@ -2885,7 +2884,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="55" t="s">
         <v>185</v>
       </c>
       <c r="E24" s="25"/>
@@ -2895,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="56" t="s">
         <v>197</v>
       </c>
       <c r="E25" s="25"/>
@@ -2905,7 +2904,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="55" t="s">
         <v>189</v>
       </c>
       <c r="E26" s="46"/>
@@ -2916,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="55" t="s">
         <v>193</v>
       </c>
       <c r="E27" s="46"/>
@@ -2927,7 +2926,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="57" t="s">
         <v>184</v>
       </c>
       <c r="E28" s="46"/>
@@ -3082,7 +3081,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="43"/>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="54" t="s">
         <v>180</v>
       </c>
       <c r="G40" s="26"/>
@@ -3212,7 +3211,7 @@
         <v>147</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="54" t="s">
         <v>192</v>
       </c>
       <c r="E51" s="20"/>
@@ -3328,7 +3327,7 @@
       <c r="G63" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PzlBh2a2XeTE1yY/WOFL7MD5sgz8jGdt3DuMmyw3VpykvF6neHP4ZkM+Devjw3cXhfH4SnsfChCofvC15rt+IA==" saltValue="RWsZVzDkBEkwtPSI2S6Bzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6omoevm4DXJEdVIvIfdATRl13P1WjwOceFyd5FyZArPNrNar3+roRxP4nPoUlEfcBclpVKYXswhqkbdvCqFfNw==" saltValue="9+R/YF4FkMg+YFDLGhvhDA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="D40">
     <cfRule type="expression" dxfId="2" priority="12">
       <formula xml:space="preserve"> IF(LEFT($D$40, 13)="Please Select", TRUE)</formula>
@@ -3431,7 +3430,7 @@
       <c r="B12" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="53">
         <v>45841</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -3440,7 +3439,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B13" s="13"/>
-      <c r="C13" s="56"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
@@ -3450,7 +3449,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B15" s="13"/>
-      <c r="C15" s="56"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
@@ -3509,7 +3508,7 @@
       <c r="D26" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RKn/BrRLFO+4zX/rUxTVD/WjfwvqiO0SFzT3Ms/0vwVJQBpu36PbUZ++9dBhhjBiM24w4hABPiGKTIBtoI3NuQ==" saltValue="18w3E1dipO/q3eHxEJgW4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="miViZKkaXc55UunoXNKnV4TosXkkALSKlSLy6t9FZWhcHKpk7CBQRToQCLKGIETImJsRSSbZjESMUZQB7Ihg3Q==" saltValue="zcVQv6zmY3fMdhjBMgV0Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4632,7 +4631,7 @@
       <c r="G118" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pxPlXaHRBWgABKRVNBR1ObLT3X3j0FVSVBlcQHtpbvQlugd9VGZo8pGpWxo6TyCPnRPuYRLwN8bBt0cfQvyecw==" saltValue="D7pJy2OQ/S1sp6fbSmfoyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wJPdjLU+j7ZwvffSNhKK94vPs3AzkKlyDUWIF+k3GxoxM7APvONIUQdovYUCdXgOtmDzfnDEenDvWB9l2mkmNg==" saltValue="sTOYPnGcdg3OrQ579MTffQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F18 F21:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$11</formula>
@@ -4968,7 +4967,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RCHOIXj4I1rslLGu1bas8mxStRwyJ2ZMYdy+hmu+xXBSGieZE8/2iZ9gm+6ASKd2zZteawrFzC4R+av5sqiVrA==" saltValue="CfkaNZmsqMvlQsURvabICA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DeAmt+MrG5WqlWKht8Uo5o3pa54cD7TA/3TF0ah2MmAT2/qo0zQVHjlLJ4MfTdrZRVsWkkG2VxH5+6BhdLe3Ew==" saltValue="LDcKVAS00wfiq8xD1MftLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
@@ -5049,7 +5048,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DJjXhahwDNU4zX+sgr8FivOrO6D/gXgknkxXq4Lc68Zsf6G+VbXKB7flPHgTHOb8tXJN8nKIm1BAzsiqXx//GQ==" saltValue="KhRUcpuMumftEhnMBWAFQA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kJ3fGmAmCVQ3/BxaVZWZfpJeSjoFPjuhEAD852LGWLDzZ0ARYWb30UIOkDv3W05QWpAMJYacG+CJi7tNxXNiOA==" saltValue="zLFX8eSw5dFWJwlBdj+wjw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5136,7 +5135,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z/aZnYFfKY7stzI0vjqqPW8pgAbOWeWVy4tfkkkUQasCSo+/mxzKhXgytSWJjIcFojX25K+/K3H9NxIBpNZM5g==" saltValue="67P8yTH0UJQ35YKpWIbVmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WL49qk5Sx5/lEHc2ER2RUujaE6O2A+VMCewtIlJDOUZZ2ICMSBXQ0kAYLbywA2Jiw8tC170BbFBCosujNPBvQg==" saltValue="zKyvSCoz8F7F8xg0+3w9Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5599,7 +5598,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IXnCE47Avuof1KMtLY5aiz3ciGTyG7O9GXRoU4iz9WLvgvy/il7cu8tcTEqIClF2bLnwGvFFQoIhZpW+yuW1qQ==" saltValue="0gnTf4lPhl0cFoNm+9a/hA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nuKC8ed3gIMsK4t5gyQ0FrV8I8oTNT0GXOR8p8OmGiP5FL6w9pJQyjwSBubUeay9wQXmDAeSEITRxmZqnxKPqA==" saltValue="AgKV34gEFkjDAqiKRnH7fQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F37">
     <sortCondition ref="A1:A1048576"/>
     <sortCondition ref="B1:B1048576"/>
@@ -5610,17 +5609,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5855,6 +5843,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5865,17 +5864,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5894,6 +5882,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
